--- a/final_data_pipeline/output/325194longform.xlsx
+++ b/final_data_pipeline/output/325194longform.xlsx
@@ -873,7 +873,7 @@
         <v>101</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB2">
         <v>8000</v>
@@ -962,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB3">
         <v>8000</v>
@@ -1051,7 +1051,7 @@
         <v>101</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB4">
         <v>8000</v>
@@ -1140,7 +1140,7 @@
         <v>101</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB5">
         <v>8000</v>
@@ -1229,7 +1229,7 @@
         <v>101</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB6">
         <v>8000</v>
@@ -1318,7 +1318,7 @@
         <v>101</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB7">
         <v>8000</v>
@@ -1407,7 +1407,7 @@
         <v>101</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB8">
         <v>8000</v>
@@ -1496,7 +1496,7 @@
         <v>101</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB9">
         <v>8000</v>
@@ -1585,7 +1585,7 @@
         <v>101</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB10">
         <v>8000</v>
@@ -1674,7 +1674,7 @@
         <v>101</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB11">
         <v>8000</v>
@@ -1763,7 +1763,7 @@
         <v>101</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -1852,7 +1852,7 @@
         <v>101</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -1941,7 +1941,7 @@
         <v>101</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB14">
         <v>8000</v>
@@ -2030,7 +2030,7 @@
         <v>101</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB15">
         <v>8000</v>
@@ -2119,7 +2119,7 @@
         <v>101</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB16">
         <v>8000</v>
@@ -2208,7 +2208,7 @@
         <v>101</v>
       </c>
       <c r="AA17">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB17">
         <v>8000</v>
@@ -2297,7 +2297,7 @@
         <v>101</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB18">
         <v>8000</v>
@@ -2386,7 +2386,7 @@
         <v>102</v>
       </c>
       <c r="AA19">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB19">
         <v>8000</v>
@@ -2475,7 +2475,7 @@
         <v>102</v>
       </c>
       <c r="AA20">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB20">
         <v>8000</v>
@@ -2564,7 +2564,7 @@
         <v>102</v>
       </c>
       <c r="AA21">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB21">
         <v>8000</v>
@@ -2653,7 +2653,7 @@
         <v>102</v>
       </c>
       <c r="AA22">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB22">
         <v>8000</v>
@@ -2742,7 +2742,7 @@
         <v>102</v>
       </c>
       <c r="AA23">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB23">
         <v>8000</v>
@@ -2831,7 +2831,7 @@
         <v>102</v>
       </c>
       <c r="AA24">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB24">
         <v>8000</v>
@@ -2920,7 +2920,7 @@
         <v>101</v>
       </c>
       <c r="AA25">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB25">
         <v>8000</v>
@@ -4792,7 +4792,7 @@
         <v>102</v>
       </c>
       <c r="AA46">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB46">
         <v>8000</v>
@@ -4884,7 +4884,7 @@
         <v>102</v>
       </c>
       <c r="AA47">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB47">
         <v>8000</v>
@@ -4976,7 +4976,7 @@
         <v>102</v>
       </c>
       <c r="AA48">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB48">
         <v>8000</v>
@@ -5065,7 +5065,7 @@
         <v>101</v>
       </c>
       <c r="AA49">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB49">
         <v>8000</v>
@@ -5154,7 +5154,7 @@
         <v>102</v>
       </c>
       <c r="AA50">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB50">
         <v>8000</v>
@@ -5243,7 +5243,7 @@
         <v>101</v>
       </c>
       <c r="AA51">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB51">
         <v>8000</v>
@@ -5332,7 +5332,7 @@
         <v>101</v>
       </c>
       <c r="AA52">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB52">
         <v>8000</v>
@@ -5421,7 +5421,7 @@
         <v>101</v>
       </c>
       <c r="AA53">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB53">
         <v>8000</v>
@@ -5510,7 +5510,7 @@
         <v>101</v>
       </c>
       <c r="AA54">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB54">
         <v>8000</v>
@@ -5599,7 +5599,7 @@
         <v>101</v>
       </c>
       <c r="AA55">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB55">
         <v>8000</v>
@@ -5688,7 +5688,7 @@
         <v>102</v>
       </c>
       <c r="AA56">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB56">
         <v>8000</v>
@@ -7201,7 +7201,7 @@
         <v>101</v>
       </c>
       <c r="AA73">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB73">
         <v>8000</v>
@@ -7290,7 +7290,7 @@
         <v>101</v>
       </c>
       <c r="AA74">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB74">
         <v>8000</v>
@@ -7379,7 +7379,7 @@
         <v>102</v>
       </c>
       <c r="AA75">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB75">
         <v>8000</v>
@@ -7468,7 +7468,7 @@
         <v>101</v>
       </c>
       <c r="AA76">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB76">
         <v>8000</v>
@@ -7913,7 +7913,7 @@
         <v>101</v>
       </c>
       <c r="AA81">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB81">
         <v>8000</v>
@@ -8002,7 +8002,7 @@
         <v>101</v>
       </c>
       <c r="AA82">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB82">
         <v>8000</v>
@@ -8091,7 +8091,7 @@
         <v>101</v>
       </c>
       <c r="AA83">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB83">
         <v>8000</v>
@@ -8180,7 +8180,7 @@
         <v>101</v>
       </c>
       <c r="AA84">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB84">
         <v>8000</v>
@@ -8269,7 +8269,7 @@
         <v>101</v>
       </c>
       <c r="AA85">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB85">
         <v>8000</v>
@@ -8358,7 +8358,7 @@
         <v>101</v>
       </c>
       <c r="AA86">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB86">
         <v>8000</v>
@@ -8447,7 +8447,7 @@
         <v>101</v>
       </c>
       <c r="AA87">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB87">
         <v>8000</v>
@@ -8536,7 +8536,7 @@
         <v>101</v>
       </c>
       <c r="AA88">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB88">
         <v>8000</v>
@@ -8625,7 +8625,7 @@
         <v>101</v>
       </c>
       <c r="AA89">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB89">
         <v>8000</v>
@@ -8714,7 +8714,7 @@
         <v>101</v>
       </c>
       <c r="AA90">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB90">
         <v>8000</v>
@@ -8803,7 +8803,7 @@
         <v>101</v>
       </c>
       <c r="AA91">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB91">
         <v>8000</v>
@@ -8892,7 +8892,7 @@
         <v>102</v>
       </c>
       <c r="AA92">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB92">
         <v>8000</v>
@@ -8981,7 +8981,7 @@
         <v>102</v>
       </c>
       <c r="AA93">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB93">
         <v>8000</v>
@@ -9070,7 +9070,7 @@
         <v>102</v>
       </c>
       <c r="AA94">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB94">
         <v>8000</v>
@@ -9159,7 +9159,7 @@
         <v>102</v>
       </c>
       <c r="AA95">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB95">
         <v>8000</v>
@@ -9248,7 +9248,7 @@
         <v>102</v>
       </c>
       <c r="AA96">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB96">
         <v>8000</v>
@@ -9337,7 +9337,7 @@
         <v>102</v>
       </c>
       <c r="AA97">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB97">
         <v>8000</v>
@@ -9426,7 +9426,7 @@
         <v>102</v>
       </c>
       <c r="AA98">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB98">
         <v>8000</v>
@@ -9515,7 +9515,7 @@
         <v>101</v>
       </c>
       <c r="AA99">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB99">
         <v>8000</v>
@@ -9604,7 +9604,7 @@
         <v>101</v>
       </c>
       <c r="AA100">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB100">
         <v>8000</v>
@@ -9693,7 +9693,7 @@
         <v>101</v>
       </c>
       <c r="AA101">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB101">
         <v>8000</v>
@@ -9782,7 +9782,7 @@
         <v>101</v>
       </c>
       <c r="AA102">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB102">
         <v>8000</v>
@@ -9871,7 +9871,7 @@
         <v>101</v>
       </c>
       <c r="AA103">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB103">
         <v>8000</v>
@@ -9960,7 +9960,7 @@
         <v>101</v>
       </c>
       <c r="AA104">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB104">
         <v>8000</v>
@@ -10049,7 +10049,7 @@
         <v>101</v>
       </c>
       <c r="AA105">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB105">
         <v>8000</v>
@@ -10138,7 +10138,7 @@
         <v>101</v>
       </c>
       <c r="AA106">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB106">
         <v>8000</v>
@@ -10227,7 +10227,7 @@
         <v>101</v>
       </c>
       <c r="AA107">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB107">
         <v>8000</v>
@@ -10316,7 +10316,7 @@
         <v>101</v>
       </c>
       <c r="AA108">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB108">
         <v>8000</v>
